--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -3,27 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B51816-ABE2-4244-A75F-CC6937BD82FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE298CD0-4FDF-4DB2-B4FB-B8E502A96271}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="119">
   <si>
     <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,142 +155,14 @@
     <t>变量21</t>
   </si>
   <si>
-    <t>00000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颍上协和医院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颍上协和二期项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李晓光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张吨吨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019年10月13日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王团力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13333333333</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颍上协和医院有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海卫宁健康科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有丙方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019年10月14日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019年10月15日</t>
-  </si>
-  <si>
-    <t>2019年10月16日</t>
-  </si>
-  <si>
-    <t>2019年10月17日</t>
-  </si>
-  <si>
-    <t>2019年10月18日</t>
-  </si>
-  <si>
-    <t>2019年10月19日</t>
-  </si>
-  <si>
-    <t>2019年10月20日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019年10月21日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子系统1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子系统4</t>
-  </si>
-  <si>
-    <t>子系统5</t>
-  </si>
-  <si>
-    <t>子系统6</t>
-  </si>
-  <si>
-    <t>子系统7</t>
-  </si>
-  <si>
-    <t>子系统8</t>
-  </si>
-  <si>
-    <t>子系统9</t>
-  </si>
-  <si>
-    <t>子系统10</t>
-  </si>
-  <si>
-    <t>子系统11</t>
-  </si>
-  <si>
-    <t>子系统12</t>
-  </si>
-  <si>
-    <t>子系统13</t>
-  </si>
-  <si>
-    <t>子系统14</t>
-  </si>
-  <si>
-    <t>子系统2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子系统3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>变量22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,6 +172,228 @@
   </si>
   <si>
     <t>切换耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>190878</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阜阳市第三人民医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阜阳市第三人民医院信息化系统建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚佳森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫宁健康科技集团股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门急诊挂号系统</t>
+  </si>
+  <si>
+    <t>门急诊收费系统</t>
+  </si>
+  <si>
+    <t>门诊预付费就医（一卡通）</t>
+  </si>
+  <si>
+    <t>医技收费系统</t>
+  </si>
+  <si>
+    <t>出入院管理系统</t>
+  </si>
+  <si>
+    <t>住院收费系统</t>
+  </si>
+  <si>
+    <t>门急诊药房管理系统</t>
+  </si>
+  <si>
+    <t>住院药房管理系统</t>
+  </si>
+  <si>
+    <t>药库管理系统</t>
+  </si>
+  <si>
+    <t>物资管理系统</t>
+  </si>
+  <si>
+    <t>供应室管理</t>
+  </si>
+  <si>
+    <t>设备管理系统</t>
+  </si>
+  <si>
+    <t>住院手术管理（手术安排及费用管理）</t>
+  </si>
+  <si>
+    <t>触摸屏导医与费用查询</t>
+  </si>
+  <si>
+    <t>门诊应急管理</t>
+  </si>
+  <si>
+    <t>排队叫号系统（诊区分诊、大屏显示、语音叫号）</t>
+  </si>
+  <si>
+    <t>统计报表系统（含报表定制）</t>
+  </si>
+  <si>
+    <t>院长综合查询</t>
+  </si>
+  <si>
+    <t>系统配置工具</t>
+  </si>
+  <si>
+    <t>门诊医生站（含电子处方）</t>
+  </si>
+  <si>
+    <t>门诊电子申请单</t>
+  </si>
+  <si>
+    <t>住院医生站</t>
+  </si>
+  <si>
+    <t>住院护士站系统</t>
+  </si>
+  <si>
+    <t>住院电子申请单</t>
+  </si>
+  <si>
+    <t>住院电子医嘱系统</t>
+  </si>
+  <si>
+    <t>住院结构化电子病历系统（病历模板、病历授权、病历书写、病案首页）</t>
+  </si>
+  <si>
+    <t>病历质控系统</t>
+  </si>
+  <si>
+    <t>住院临床路径系统</t>
+  </si>
+  <si>
+    <t>病案管理系统</t>
+  </si>
+  <si>
+    <t>抗菌药物管理</t>
+  </si>
+  <si>
+    <t>临床危急值预警提醒</t>
+  </si>
+  <si>
+    <t>阜阳市医保接口</t>
+  </si>
+  <si>
+    <t>农合接口</t>
+  </si>
+  <si>
+    <t>与金蝶财务系统接口</t>
+  </si>
+  <si>
+    <t>阜阳市智慧医疗接口</t>
+  </si>
+  <si>
+    <t>医院医联体单位、远程医疗所需端口</t>
+  </si>
+  <si>
+    <t>其他省市卫计委指定或政府指定所需端口</t>
+  </si>
+  <si>
+    <t>二保合一后的接口改造</t>
+  </si>
+  <si>
+    <t>医院感染管理系统</t>
+  </si>
+  <si>
+    <t>门诊电子病历系统</t>
+  </si>
+  <si>
+    <t>护理病历系统</t>
+  </si>
+  <si>
+    <t>移动查房系统</t>
+  </si>
+  <si>
+    <t>移动护理系统</t>
+  </si>
+  <si>
+    <t>数字化精神量表</t>
+  </si>
+  <si>
+    <t>移动院务通系统</t>
+  </si>
+  <si>
+    <t>医保控费系统</t>
+  </si>
+  <si>
+    <t>医院服务总线（ESB）</t>
+  </si>
+  <si>
+    <t>单点登录</t>
+  </si>
+  <si>
+    <t>患者主索引系统（EMPI）</t>
+  </si>
+  <si>
+    <t>临床数据中心（CDR）</t>
+  </si>
+  <si>
+    <t>临床信息统一视图</t>
+  </si>
+  <si>
+    <t>院长决策支持系统</t>
+  </si>
+  <si>
+    <t>自助机软件</t>
+  </si>
+  <si>
+    <t>线下扫码付（支持微信支持、支付宝支付）</t>
+  </si>
+  <si>
+    <t>2019年06月26日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年06月28日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年06月30日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年12月15日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年12月29日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年12月30日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年01月01日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年05月01日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +404,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +498,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -448,7 +541,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -456,8 +549,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,14 +580,21 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="标题 3" xfId="2" builtinId="18"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -501,6 +604,469 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2266950</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2202FCA-25D5-471A-A25E-9F97477E6F6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="6448425"/>
+          <a:ext cx="4448175" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>0. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>电脑必须为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>64</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>位操作系统，装有能够正常使用的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>office2007</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>及以上版本</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文档必须为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>docx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>格式，模板文件名不可修改（数据源</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表格文件名无要求）；</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>docx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文档可以修改内容和样式，但不可以改变结构；</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可以修改内容，但不可以改变字段位置和逻辑关系。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日期必须为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>yyyy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>mm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>dd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>格式</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>3. “WN-QR-4-3-A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>项目验收报告</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>-1.5”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>模块情况表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>改成了两个表</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>子系统数量最多为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>个</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -827,7 +1393,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -836,8 +1402,8 @@
     <col min="2" max="2" width="22.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.75" style="7" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="10" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
     <col min="16" max="16" width="10.5" customWidth="1"/>
@@ -851,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>0</v>
@@ -871,16 +1437,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="11">
-        <v>340000</v>
+        <v>51</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="15">
+        <v>10800</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -891,16 +1457,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="11">
-        <v>350000</v>
+        <v>52</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="15">
+        <v>15400</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -911,16 +1477,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="11">
-        <v>360000</v>
+        <v>45</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="15">
+        <v>128000</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -931,16 +1497,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="11">
-        <v>370000</v>
+        <v>53</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="15">
+        <v>15400</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -951,16 +1517,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="11">
-        <v>380000</v>
+        <v>111</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="15">
+        <v>16800</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -971,16 +1537,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="11">
-        <v>390000</v>
+        <v>112</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="15">
+        <v>18000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -991,16 +1557,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="11">
-        <v>400000</v>
+        <v>113</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="15">
+        <v>28800</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1011,16 +1577,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="11">
-        <v>410000</v>
+        <v>114</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="15">
+        <v>28800</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1031,16 +1597,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="11">
-        <v>420000</v>
+        <v>115</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="15">
+        <v>31600</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1051,16 +1617,16 @@
         <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="11">
-        <v>430000</v>
+        <v>116</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="15">
+        <v>95000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1071,16 +1637,16 @@
         <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="11">
-        <v>440000</v>
+        <v>117</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="15">
+        <v>66000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1091,16 +1657,16 @@
         <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="11">
-        <v>450000</v>
+        <v>54</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="15">
+        <v>125000</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1111,16 +1677,16 @@
         <v>16</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="11">
-        <v>460000</v>
+        <v>46</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="15">
+        <v>37000</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1131,16 +1697,16 @@
         <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="15">
+        <v>91000</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1151,12 +1717,17 @@
         <v>18</v>
       </c>
       <c r="C16" s="12">
-        <f>SUM(H2:H101)</f>
-        <v>5200000</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="11"/>
+        <v>9800000</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="15">
+        <v>154000</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1166,11 +1737,17 @@
         <v>19</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="15">
+        <v>52000</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -1180,11 +1757,17 @@
         <v>20</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="15">
+        <v>88000</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -1193,12 +1776,16 @@
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="11"/>
+      <c r="C19" s="6"/>
+      <c r="F19" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="15">
+        <v>60000</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -1208,11 +1795,17 @@
         <v>22</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="11"/>
+        <v>117</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="15">
+        <v>30000</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -1222,191 +1815,407 @@
         <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="15">
+        <v>158000</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="15">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+      <c r="F23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="15">
+        <v>158000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="15">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="F25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="15">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="F26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="15">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="F27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="15">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="F28" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="G28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="15">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="F29" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="15">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="F30" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="8"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="11"/>
-    </row>
-    <row r="54" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="11"/>
+      <c r="G30" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="15">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="15">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="15">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="15">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="15">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="15">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="15">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="15">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" s="15">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" s="15">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="15">
+        <v>90800</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" s="15">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="15">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H43" s="15">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44" s="15">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="15">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" s="15">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H47" s="15">
+        <v>184000</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F48" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" s="15">
+        <v>902400</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="15">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50" s="15">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H51" s="15">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="15">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53" s="15">
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H54" s="15">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H55" s="15">
+        <v>200000</v>
+      </c>
     </row>
     <row r="56" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F56" s="3"/>
@@ -1642,5 +2451,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22307"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE298CD0-4FDF-4DB2-B4FB-B8E502A96271}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE53F83-06DD-4254-BAA4-FC35CFD76654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,11 +683,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>电脑必须为</a:t>
+            <a:t>装有能够正常使用的</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>64</a:t>
+            <a:t>office2007</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -699,11 +699,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>位操作系统，装有能够正常使用的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>office2007</a:t>
+            <a:t>及以上版本，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>64</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>位操作系统</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -715,7 +735,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>及以上版本</a:t>
+            <a:t>。</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -955,7 +975,7 @@
           </a:br>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>3. “WN-QR-4-3-A</a:t>
+            <a:t>3. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -967,82 +987,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>项目验收报告</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>-1.5”</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>“</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>模块情况表</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>”</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>改成了两个表</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>4. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>子系统数量最多为</a:t>
+            <a:t>子系统数量暂定最多</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>

--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22307"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE53F83-06DD-4254-BAA4-FC35CFD76654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DC8899-931E-4934-90CF-0978020E715F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,36 +365,28 @@
     <t>线下扫码付（支持微信支持、支付宝支付）</t>
   </si>
   <si>
-    <t>2019年06月26日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019年06月28日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019年06月30日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019年12月15日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019年12月29日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019年12月30日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年01月01日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年05月01日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2019.06.26</t>
+  </si>
+  <si>
+    <t>2019.06.28</t>
+  </si>
+  <si>
+    <t>2019.06.30</t>
+  </si>
+  <si>
+    <t>2019.12.15</t>
+  </si>
+  <si>
+    <t>2019.12.29</t>
+  </si>
+  <si>
+    <t>2019.12.30</t>
+  </si>
+  <si>
+    <t>2020.01.01</t>
+  </si>
+  <si>
+    <t>2020.05.01</t>
   </si>
 </sst>
 </file>
@@ -674,32 +666,8 @@
             <a:t>0. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>装有能够正常使用的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>office2007</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>及以上版本，</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>要求</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
@@ -735,7 +703,23 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>。</a:t>
+            <a:t>，装有能够正常使用的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>office2007</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>及以上版本。</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -881,101 +865,6 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
             <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>日期必须为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>“</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>yyyy</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>年</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>mm</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>月</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>dd</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>日</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>”</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>格式</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>3. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -1338,7 +1227,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>

--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22307"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DC8899-931E-4934-90CF-0978020E715F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9481D2DC-6A0A-4EBA-A28F-5E686A8C51A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1227,14 +1227,14 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="48.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="20.125" customWidth="1"/>

--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9481D2DC-6A0A-4EBA-A28F-5E686A8C51A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC7B1FC-706B-4980-BAC1-C3A520398989}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
   <si>
     <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,6 +395,14 @@
   </si>
   <si>
     <t>2020.05.01</t>
+  </si>
+  <si>
+    <t>变量23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧金额合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -396,7 +412,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,14 +490,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF666666"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
@@ -541,7 +549,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -562,21 +570,23 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1227,7 +1237,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1248,7 @@
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="20.125" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="9" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
     <col min="16" max="16" width="10.5" customWidth="1"/>
   </cols>
@@ -1259,7 +1269,7 @@
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1273,13 +1283,13 @@
       <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <v>10800</v>
       </c>
     </row>
@@ -1293,13 +1303,13 @@
       <c r="C3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>15400</v>
       </c>
     </row>
@@ -1313,13 +1323,13 @@
       <c r="C4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>128000</v>
       </c>
     </row>
@@ -1333,13 +1343,13 @@
       <c r="C5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>15400</v>
       </c>
     </row>
@@ -1353,13 +1363,13 @@
       <c r="C6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>16800</v>
       </c>
     </row>
@@ -1373,13 +1383,13 @@
       <c r="C7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>18000</v>
       </c>
     </row>
@@ -1393,13 +1403,13 @@
       <c r="C8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>28800</v>
       </c>
     </row>
@@ -1413,13 +1423,13 @@
       <c r="C9" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>28800</v>
       </c>
     </row>
@@ -1433,13 +1443,13 @@
       <c r="C10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>31600</v>
       </c>
     </row>
@@ -1453,13 +1463,13 @@
       <c r="C11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>95000</v>
       </c>
     </row>
@@ -1473,13 +1483,13 @@
       <c r="C12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <v>66000</v>
       </c>
     </row>
@@ -1493,13 +1503,13 @@
       <c r="C13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>125000</v>
       </c>
     </row>
@@ -1513,13 +1523,13 @@
       <c r="C14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <v>37000</v>
       </c>
     </row>
@@ -1533,13 +1543,13 @@
       <c r="C15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <v>91000</v>
       </c>
     </row>
@@ -1550,16 +1560,16 @@
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>9800000</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <v>154000</v>
       </c>
     </row>
@@ -1573,13 +1583,13 @@
       <c r="C17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>52000</v>
       </c>
     </row>
@@ -1593,13 +1603,13 @@
       <c r="C18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <v>88000</v>
       </c>
     </row>
@@ -1611,13 +1621,13 @@
         <v>21</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <v>60000</v>
       </c>
     </row>
@@ -1631,13 +1641,13 @@
       <c r="C20" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="14">
         <v>30000</v>
       </c>
     </row>
@@ -1651,13 +1661,13 @@
       <c r="C21" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>158000</v>
       </c>
     </row>
@@ -1668,618 +1678,627 @@
       <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="14">
         <v>18000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="8"/>
-      <c r="F23" s="14" t="s">
+    <row r="23" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="15">
+        <f>SUM(H2:H101)</f>
+        <v>7443800</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <v>158000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="14" t="s">
+    <row r="24" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <v>57000</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25"/>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <v>18000</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26"/>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="14">
         <v>30000</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27"/>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <v>850000</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28"/>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <v>200000</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29"/>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <v>240000</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30"/>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <v>90000</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <v>120000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="14">
         <v>55000</v>
       </c>
     </row>
     <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <v>50000</v>
       </c>
     </row>
     <row r="34" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="14">
         <v>50000</v>
       </c>
     </row>
     <row r="35" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="14">
         <v>40000</v>
       </c>
     </row>
     <row r="36" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="14">
         <v>50000</v>
       </c>
     </row>
     <row r="37" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="14">
         <v>80000</v>
       </c>
     </row>
     <row r="38" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="14">
         <v>120000</v>
       </c>
     </row>
     <row r="39" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="14">
         <v>50000</v>
       </c>
     </row>
     <row r="40" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="14">
         <v>90800</v>
       </c>
     </row>
     <row r="41" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="14">
         <v>450000</v>
       </c>
     </row>
     <row r="42" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="14">
         <v>350000</v>
       </c>
     </row>
     <row r="43" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="14">
         <v>56000</v>
       </c>
     </row>
     <row r="44" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="14">
         <v>155000</v>
       </c>
     </row>
     <row r="45" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="14">
         <v>50000</v>
       </c>
     </row>
     <row r="46" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="14">
         <v>198000</v>
       </c>
     </row>
     <row r="47" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="14">
         <v>184000</v>
       </c>
     </row>
     <row r="48" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="14">
         <v>902400</v>
       </c>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="14">
         <v>80000</v>
       </c>
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="14">
         <v>80000</v>
       </c>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="14">
         <v>510000</v>
       </c>
     </row>
     <row r="52" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="14">
         <v>270000</v>
       </c>
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="14">
         <v>192000</v>
       </c>
     </row>
     <row r="54" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="14">
         <v>150000</v>
       </c>
     </row>
     <row r="55" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="14">
         <v>200000</v>
       </c>
     </row>
     <row r="56" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="11"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="11"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="11"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="11"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="11"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="11"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="11"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="11"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="11"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="11"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="11"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="11"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="11"/>
+      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="11"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="11"/>
+      <c r="H70" s="10"/>
     </row>
     <row r="71" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="11"/>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="11"/>
+      <c r="H72" s="10"/>
     </row>
     <row r="73" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="11"/>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="11"/>
+      <c r="H74" s="10"/>
     </row>
     <row r="75" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="11"/>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="11"/>
+      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="11"/>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="11"/>
+      <c r="H78" s="10"/>
     </row>
     <row r="79" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="11"/>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="11"/>
+      <c r="H80" s="10"/>
     </row>
     <row r="81" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="11"/>
+      <c r="H81" s="10"/>
     </row>
     <row r="82" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="11"/>
+      <c r="H82" s="10"/>
     </row>
     <row r="83" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="11"/>
+      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="11"/>
+      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="11"/>
+      <c r="H85" s="10"/>
     </row>
     <row r="86" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="11"/>
+      <c r="H86" s="10"/>
     </row>
     <row r="87" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="11"/>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="11"/>
+      <c r="H88" s="10"/>
     </row>
     <row r="89" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="11"/>
+      <c r="H89" s="10"/>
     </row>
     <row r="90" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="11"/>
+      <c r="H90" s="10"/>
     </row>
     <row r="91" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="11"/>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="11"/>
+      <c r="H92" s="10"/>
     </row>
     <row r="93" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="11"/>
+      <c r="H93" s="10"/>
     </row>
     <row r="94" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="11"/>
+      <c r="H94" s="10"/>
     </row>
     <row r="95" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="11"/>
+      <c r="H95" s="10"/>
     </row>
     <row r="96" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="11"/>
+      <c r="H96" s="10"/>
     </row>
     <row r="97" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="11"/>
+      <c r="H97" s="10"/>
     </row>
     <row r="98" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="11"/>
+      <c r="H98" s="10"/>
     </row>
     <row r="99" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="11"/>
+      <c r="H99" s="10"/>
     </row>
     <row r="100" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="11"/>
+      <c r="H100" s="10"/>
     </row>
     <row r="101" spans="6:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="11"/>
+      <c r="H101" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
